--- a/DHL/Wave 13 daily Status Tracker 0.1.xlsx
+++ b/DHL/Wave 13 daily Status Tracker 0.1.xlsx
@@ -9840,104 +9840,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:J16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Country Code" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I42:I85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -10127,6 +10029,104 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Country Code" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -22985,6 +22985,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD16BC169877524FA7B916527FDE7CC5" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5ccf43b99dc97a9e1fc66286ad8956e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7deb1df1-b31a-4e3d-a117-e7dc206ff7b0" xmlns:ns3="1874ec10-caa8-476b-a2ba-499edd75434d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16277a868960d58320717d7d8e1ae744" ns2:_="" ns3:_="">
     <xsd:import namespace="7deb1df1-b31a-4e3d-a117-e7dc206ff7b0"/>
@@ -23155,22 +23170,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52BDF211-241C-40D3-810D-F0D0395DD6CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91BA8147-39A5-47EA-BB36-8F8B8D22E255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF542D7-1721-4402-A725-A6CB25CFC3B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23187,21 +23204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91BA8147-39A5-47EA-BB36-8F8B8D22E255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52BDF211-241C-40D3-810D-F0D0395DD6CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>